--- a/data/financial_statements/sofp/KMI.xlsx
+++ b/data/financial_statements/sofp/KMI.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,2887 +602,2932 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>745000000</v>
+      </c>
+      <c r="C2">
         <v>723000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>417000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>348000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1147000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>279000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1969000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1423000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1209000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>699000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>546000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>942000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1134000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>268000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>249000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>270000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3331000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3560000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>347000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>363000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>326000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>620000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>518000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>486000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>787000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1245000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>180000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>175000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>289000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>179000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>163000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>259000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>315000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>472000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>363000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>513000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>598000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>816000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1017000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1106000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>1873000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2063000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1661000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1611000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1433000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1416000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1425000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1293000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1142000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1073000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1186000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1379000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1273000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1227000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1310000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1498000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1545000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1520000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1512000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1613000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1214000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1353000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1440000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1550000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1282000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1278000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1203000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1355000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1404000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1349000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1420000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1641000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1696000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1633000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1838000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1721000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1420000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1488000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1290000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>715000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>690000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>591000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>562000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>457000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>396000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>389000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>348000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>317000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>336000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>307000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>371000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>405000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>450000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>429000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>385000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>383000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>420000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>442000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>424000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>428000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>438000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>380000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>357000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>325000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>361000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>364000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>407000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>445000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>474000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>453000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>459000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>461000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>460000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>417000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>430000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>435000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>428000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>389000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>3058000000</v>
+      </c>
+      <c r="C5">
         <v>508000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>438000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>433000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>509000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>517000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>502000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>497000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>353000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>514000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>535000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>661000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>354000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>419000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>374000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>253000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>508000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>278000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>347000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>311000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>352000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>351000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>417000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>369000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>535000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>511000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>651000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>739000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>773000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>989000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>894000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1101000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1281000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>635000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>582000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>446000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>552000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>492000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>481000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>379000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>3803000000</v>
+      </c>
+      <c r="C6">
         <v>3819000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3608000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3033000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3829000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2686000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4283000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3734000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3203000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2672000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2490000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3096000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3238000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2365000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2300000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2262000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5722000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>5766000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2634000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2628000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>2715000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2613000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2726000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2675000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3229000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3363000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2470000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2481000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2824000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>3067000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2936000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>3289000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>3752000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>3486000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>3367000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3662000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>3868000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>3591000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>3772000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>3686000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>35599000000</v>
+      </c>
+      <c r="C7">
         <v>35534000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>35530000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>35557000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35653000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>35576000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>34570000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>35605000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>35836000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>35958000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>36027000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>36041000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>36419000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>37934000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>37840000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>37782000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>37897000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>37795000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>39905000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>40333000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>40155000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>39867000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>39423000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>39023000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>38705000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>38780000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>41199000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>41042000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>40547000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>40608000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>40586000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>40289000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>38564000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>38100000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>37607000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>36952000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>35847000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>35275000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>34599000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>31201000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>7653000000</v>
+      </c>
+      <c r="C8">
         <v>7465000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7470000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7545000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7578000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7620000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>7650000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7693000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>7917000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>8014000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>7892000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>7886000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>7759000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>8387000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>8124000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>7770000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>7481000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>7432000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>7293000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>7420000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>7298000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>7484000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>7442000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>7136000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>7027000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>7358000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>6202000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>6035000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>6040000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>5943000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>6028000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>6011000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>6036000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>6041000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>5862000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>5962000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>5951000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>6044000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>6085000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>5773000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>19965000000</v>
+      </c>
+      <c r="C9">
         <v>21840000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>21471000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>21532000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>21592000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>21777000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21436000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>22247000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>22304000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>22361000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>22418000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>23467000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>24127000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>24693000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>24746000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>24791000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>24845000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>24900000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>25142000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>25201000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>25261000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>25317000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>25367000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>25417000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>25470000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>25547000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>27242000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>27297000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>27341000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>28571000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>28642000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>28669000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>26956000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>26979000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>27020000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>26966000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>26942000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>26968000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>26978000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>24720000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
         <v>8000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>115000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>303000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>492000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>213000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>536000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>671000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>790000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>845000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>857000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1324000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1487000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1647000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1566000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1874000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1953000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1886000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>2044000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>3432000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>3619000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>4064000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>4352000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>4595000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>4975000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>5103000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>5323000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>5327000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>5409000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>5545000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>5651000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>1249000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1237000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1322000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1040000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1302000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1309000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1303000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1128000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1376000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1359000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1379000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1052000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>402000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>618000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>66275000000</v>
+      </c>
+      <c r="C12">
         <v>66173000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>65782000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>66102000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>66587000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>66954000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>65892000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>67474000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>68770000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>69149000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>69294000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>70434000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>70919000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>74566000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>74395000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>74030000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>73144000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>73297000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>75681000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>76383000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>76340000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>77738000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>77477000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>77118000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>77076000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>78241000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>81847000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>81748000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>81280000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>82610000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>82674000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>82875000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>79297000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>73632000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>72997000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>72392000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>71317000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>70984000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>70348000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>64622000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>70078000000</v>
+      </c>
+      <c r="C13">
         <v>69992000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>69390000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>69135000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>70416000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>69640000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>70175000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>71208000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>71973000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>71821000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>71784000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>73530000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>74157000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>76931000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>76695000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>76292000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>78866000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>79063000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>78315000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>79011000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>79055000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>80351000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>80203000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>79793000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>80305000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>81604000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>84317000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>84229000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>84104000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>85677000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>85610000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>86164000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>83049000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>77118000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>76364000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>76054000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>75185000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>74575000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>74120000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>68308000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>1579000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1691000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1204000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1259000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1189000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>949000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>968000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>837000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>774000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>698000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>752000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>914000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>916000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>900000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1012000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1337000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1307000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1269000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1221000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1340000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1358000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1353000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1214000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1257000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1192000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1087000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1017000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1192000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1226000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1293000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1393000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1588000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1543000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1501000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1575000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1676000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1427000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1326000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1111000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>327000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>442000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>302000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>504000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>578000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>711000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>461000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>832000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>666000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>501000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>337000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>637000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>360000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>531000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>336000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>579000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>488000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>890000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>716000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>912000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>719000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>908000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>708000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>886000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>918000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1035000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>782000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>993000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>885000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1020000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>937000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1020000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1105000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1252000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1044000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1149000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>391000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>539000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>377000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>3385000000</v>
+      </c>
+      <c r="C16">
         <v>2634000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2970000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3324000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2646000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2822000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2183000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2173000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2558000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2057000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3006000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3540000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2477000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>4406000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3054000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2502000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3388000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2337000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2132000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2494000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2828000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>3156000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>3224000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>3928000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2696000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2944000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>3419000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1702000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>821000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>3003000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>3154000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>3435000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>2717000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>2307000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>2623000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>2412000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>2306000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>2973000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>3964000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>2876000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>297000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>217000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>211000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>270000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>284000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>217000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>205000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>267000000</v>
-      </c>
-      <c r="J17">
-        <v>335000000</v>
       </c>
       <c r="K17">
         <v>335000000</v>
       </c>
       <c r="L17">
+        <v>335000000</v>
+      </c>
+      <c r="M17">
         <v>295000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>364000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>384000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>298000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>289000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>483000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>256000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>278000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>3545000000</v>
+      </c>
+      <c r="C18">
         <v>1311000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1572000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1409000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1142000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>952000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>999000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>811000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>580000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>544000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>662000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>684000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>708000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>760000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>876000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>870000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>894000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1357000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1088000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>998000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>845000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>941000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>878000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>839000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1085000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>712000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1025000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>895000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1077000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1032000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1019000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1037000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1130000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1111000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1037000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>944000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>83000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>104000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>6930000000</v>
+      </c>
+      <c r="C19">
         <v>6148000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>6892000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>6450000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>5821000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>5825000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>5059000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4618000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5074000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>4376000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5202000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>5608000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>5100000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>6826000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>5659000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>5009000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>7557000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>5489000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>5379000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>5429000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>6181000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>6174000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>6363000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>6689000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>5924000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>6044000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>6566000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>4396000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>4065000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>6191000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>6499000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>6784000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>6362000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>6085000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>6487000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>6068000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>6075000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>6415000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>7333000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>5582000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>28403000000</v>
+      </c>
+      <c r="C20">
         <v>29107000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>28552000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>28759000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>30674000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>30002000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>31077000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>31061000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>32131000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>32660000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>31441000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>31405000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>31915000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>32111000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>33005000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>33328000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>33936000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>35268000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>35366000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>35543000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>35015000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>35116000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>35100000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>35464000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>37354000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>38518000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>40201000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>42105000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>42406000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>41630000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>41399000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>41824000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>40097000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>35636000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>34521000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>34799000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>33887000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>33038000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>31582000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>31514000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>442000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>196000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-8000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-115000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-303000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-492000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-213000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-536000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-671000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-790000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-845000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-394000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>4605000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>4554000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>4599000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>4651000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>4314000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>4113000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>4219000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22">
         <v>661000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>683000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>705000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>728000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>747000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>768000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>793000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>803000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>801000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>775000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>705000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>666000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>633000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>581000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>523000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>2631000000</v>
+      </c>
+      <c r="C23">
         <v>2160000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2125000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2219000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2000000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2160000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2216000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2221000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2202000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2093000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2249000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2260000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2253000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2719000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2772000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2794000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2176000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2407000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2495000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>2381000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2735000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>2537000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>2526000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2635000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>2225000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>2074000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2077000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>2182000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>2230000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>2014000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>2207000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>2197000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>2164000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>2023000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>2147000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>2154000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>2287000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>2506000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2553000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>2685000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>31034000000</v>
+      </c>
+      <c r="C24">
         <v>31709000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>30873000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>30978000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>32674000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>32823000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>33976000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>33987000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>35061000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>35500000000</v>
-      </c>
-      <c r="K24">
-        <v>34458000000</v>
       </c>
       <c r="L24">
         <v>34458000000</v>
       </c>
       <c r="M24">
+        <v>34458000000</v>
+      </c>
+      <c r="N24">
         <v>34971000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>35631000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>36552000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>36827000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>36778000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>38308000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>38442000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>38447000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>37750000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>37653000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>37626000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>38099000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>39579000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>40592000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>42278000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>44287000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>44636000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>43644000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>43606000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>44021000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>42261000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>42264000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>41222000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>41552000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>40825000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>39858000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>38248000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>38418000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>37964000000</v>
+      </c>
+      <c r="C25">
         <v>37857000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>37765000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>37428000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>38495000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>38648000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>39035000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>38605000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>40135000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>39876000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>39660000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>40066000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>40071000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>42457000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>42211000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>41836000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>44335000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>43797000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>43821000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>43876000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>43931000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>43827000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>43989000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>44788000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>45503000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>46636000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>48844000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>48683000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>48701000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>49835000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>50105000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>50805000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>48623000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>48349000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>47709000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>47620000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>46900000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>46273000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>45581000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>44000000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>41689000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>41654000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>41813000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>41806000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>41788000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>41793000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>41775000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>41756000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>41736000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>41731000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>41713000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>41745000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>41727000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>41734000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>41716000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>41701000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>41704000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>41696000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>41677000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>41909000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>42101000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>42092000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>41756000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>41739000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>41701000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>41696000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>41678000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>41661000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>40062000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>38791000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>37839000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>36178000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>14361000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>14339000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>14362000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>14479000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>14636000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>14945000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>14857000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>23000000</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27">
         <v>23000000</v>
@@ -3416,7 +3575,7 @@
         <v>23000000</v>
       </c>
       <c r="R27">
-        <v>22000000</v>
+        <v>23000000</v>
       </c>
       <c r="S27">
         <v>22000000</v>
@@ -3461,10 +3620,10 @@
         <v>22000000</v>
       </c>
       <c r="AG27">
+        <v>22000000</v>
+      </c>
+      <c r="AH27">
         <v>21000000</v>
-      </c>
-      <c r="AH27">
-        <v>10000000</v>
       </c>
       <c r="AI27">
         <v>10000000</v>
@@ -3484,661 +3643,673 @@
       <c r="AN27">
         <v>10000000</v>
       </c>
+      <c r="AO27">
+        <v>10000000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>-10593000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-10540000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-10544000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-10595000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-10617000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-10496000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-9124000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-9936000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-9945000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-9802000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-8568000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-7693000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-7733000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-7671000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-7619000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-7716000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-7744000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-7993000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-7365000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-7754000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-6429000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-6482000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-6540000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-6669000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-6560000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-6053000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-6106000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-6103000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-4242000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-3350000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-2639000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-2106000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-1776000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-1661000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-1510000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-1372000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-1284000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-1153000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-1035000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>31144000000</v>
+      </c>
+      <c r="C29">
         <v>31119000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>31137000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>31292000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>31234000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>31194000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>32674000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>31843000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>31814000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>31952000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>33168000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>34075000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>32114000000</v>
+      </c>
+      <c r="C30">
         <v>32135000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>31625000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>31707000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>31921000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>30992000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>31140000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>32603000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>31838000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>31945000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>32124000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>33464000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>34086000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>34474000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>34484000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>34456000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>34531000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>35266000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>34494000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>35135000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>35124000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>36524000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>36214000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>35005000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>34802000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>34968000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>35473000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>35546000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>35403000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>35842000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>35505000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>35359000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>34426000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>28769000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>28655000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>28434000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>28285000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>28302000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>28539000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>24308000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>32114000000</v>
+      </c>
+      <c r="C31">
         <v>32135000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>31625000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>31707000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>31921000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>30992000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>31140000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>32603000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>31838000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>31945000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>32124000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>33464000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>34086000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>34474000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>34484000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>34456000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>34531000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>35266000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>34494000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>35135000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>35124000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>36524000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>36214000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>35005000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>34802000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>34968000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>35473000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>35546000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>35403000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>35842000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>35505000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>35359000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>34426000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>28769000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>28655000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>28434000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>28285000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>28302000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>28539000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>24308000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>70078000000</v>
+      </c>
+      <c r="C32">
         <v>69992000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>69390000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>69135000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>70416000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>69640000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>70175000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>71208000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>71973000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>71821000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>71784000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>73530000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>74157000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>76931000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>76695000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>76292000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>78866000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>79063000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>78315000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>79011000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>79055000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>80351000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>80203000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>79793000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>80305000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>81604000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>84317000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>84229000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>84104000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>85677000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>85610000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>86164000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>83049000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>77118000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>76364000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>76054000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>75185000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>74575000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>74120000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>68308000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>2249728000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2257465000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>2267383000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2267392000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>2267382000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2264605000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2264471000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2264257000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>2263750000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>2261445000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>2261426000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>2264936000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>2264908000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>2262498000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>2262424000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>2262166000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>2205497000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>2203970000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>2203966000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>2217110000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>2231148000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>2230166000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>2230150000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>2230102000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>2230085000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>2229330000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>2229232000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>2229224000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>2227894000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>2188198000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>2165283000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>2125147000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>1028230000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>1027910000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>1027904000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>1030677000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>1035847000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>1035769000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>1035732000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="R34">
-        <v>1600000</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="S34">
         <v>1600000</v>
@@ -4146,373 +4317,385 @@
       <c r="T34">
         <v>1600000</v>
       </c>
-      <c r="V34">
+      <c r="U34">
         <v>1600000</v>
       </c>
+      <c r="W34">
+        <v>1600000</v>
+      </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>12149000000</v>
+      </c>
+      <c r="C35">
         <v>10295000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>10154000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>10175000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>10329000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>9215000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>9704000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>10356000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>9534000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>9584000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>9706000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>9997000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>9959000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>9781000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>9738000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>9665000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>9686000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>10366000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>9352000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>9934000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>9863000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>11207000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>10847000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>9588000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>9332000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>9421000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>8231000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>8249000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>8062000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>7271000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>6863000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>6690000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>7470000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>1790000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>1635000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>1468000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>1343000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>1334000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>1561000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>-412000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>31043000000</v>
+      </c>
+      <c r="C36">
         <v>31018000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>31105000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>31735000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>32173000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>32545000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>31291000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>31811000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>33480000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>34018000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>33901000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>34003000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>33258000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>36249000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>35810000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>35560000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>33993000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>34045000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>37151000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>37674000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>37517000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>37652000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>37806000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>38906000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>39263000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>40217000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>43440000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>43632000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>42938000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>44454000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>44390000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>45000000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>42499000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>37471000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>36781000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>36698000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>35595000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>35195000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>34529000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>33284000000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>31788000000</v>
+      </c>
+      <c r="C37">
         <v>31741000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>31522000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>32083000000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>33320000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>32824000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>33260000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>33234000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>34689000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>34717000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>34447000000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>34945000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>34392000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>36517000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>36059000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>35830000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>37324000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>37605000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>37498000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>38037000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>37843000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>38272000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>38324000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>39392000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>40050000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>41462000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>43620000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>43807000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>43227000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>44633000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>44553000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>45259000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>42814000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>37943000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>37144000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>37211000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>36193000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>36011000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>35546000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>34390000000</v>
       </c>
     </row>
